--- a/datamining/khaiii_word_cor_etc.xlsx
+++ b/datamining/khaiii_word_cor_etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Desktop\태윤\주소히\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A0EE54-B81C-4EC6-ABEA-69679BAB15EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01895F72-6492-455D-9A4E-5DC5968B1045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E8DEDC7-B67A-4D68-A3B0-96047DE437FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>연번</t>
   </si>
@@ -41,154 +41,6 @@
     <t>기존</t>
   </si>
   <si>
-    <t>수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트웨어</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그래밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>초등</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>현장</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>중등</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고등</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학부모</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일앵커</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그램</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>교사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>형태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>선발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일러닝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수용의도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>운동시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체지향</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크립트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>인재양성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>소프트웨어컴포넌트</t>
   </si>
   <si>
@@ -295,6 +147,94 @@
   </si>
   <si>
     <t>초‧중</t>
+  </si>
+  <si>
+    <t>소프트웨어, 컴포넌트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터, 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색, 알고리즘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등, 현장</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등, 중등</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정, 사회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등, 중등, 고등</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학부모, 서비스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일앵커, 프로그램</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등, 중등, 교사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷, 휴대폰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트, 형태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양성, 선발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일러닝, 수용의도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동시간, 지속</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트, 레벨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트, 분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체지향, 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트, 코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합, 인재양성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트, 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩, 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,50 +312,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,15 +330,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -750,599 +644,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977125C-F9CB-4A38-9BA2-7E4E4E53AA81}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>171</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>891</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1113</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>1304</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>1581</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>1950</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>1962</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>1984</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>2125</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>2300</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>2413</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>2572</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>2574</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>2713</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>2777</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>3005</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>3184</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>3311</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>3312</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>3330</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>3421</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>3443</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>3474</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>3493</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>3893</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>3898</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>4040</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>4126</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>4137</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>4159</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>4307</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>4350</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>4572</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datamining/khaiii_word_cor_etc.xlsx
+++ b/datamining/khaiii_word_cor_etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Desktop\태윤\주소히\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01895F72-6492-455D-9A4E-5DC5968B1045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A748F-8FC5-44BE-82F0-159DBCD895B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E8DEDC7-B67A-4D68-A3B0-96047DE437FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>연번</t>
   </si>
@@ -235,6 +235,10 @@
   <si>
     <t>코딩, 프로젝트</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -647,7 +651,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -664,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">

--- a/datamining/khaiii_word_cor_etc.xlsx
+++ b/datamining/khaiii_word_cor_etc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Desktop\태윤\주소히\datamining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A748F-8FC5-44BE-82F0-159DBCD895B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D7C80-873D-44E8-924C-EFC949A722AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E8DEDC7-B67A-4D68-A3B0-96047DE437FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>연번</t>
   </si>
@@ -238,6 +238,62 @@
   </si>
   <si>
     <t>수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행•재정</t>
+  </si>
+  <si>
+    <t>학습자․학부모</t>
+  </si>
+  <si>
+    <t>역문헌빈도가중치</t>
+  </si>
+  <si>
+    <t>요소․절차</t>
+  </si>
+  <si>
+    <t>구성•학습</t>
+  </si>
+  <si>
+    <t>내용•학습</t>
+  </si>
+  <si>
+    <t>디지털역량내용교수지식</t>
+  </si>
+  <si>
+    <t>행정, 재정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습자, 학부모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈도, 가중치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소, 절차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성, 학습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용, 학습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털역량, 내용교수지식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초・중학</t>
+  </si>
+  <si>
+    <t>초등, 중등</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,9 +386,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977125C-F9CB-4A38-9BA2-7E4E4E53AA81}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -672,10 +725,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -683,10 +736,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -694,10 +747,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -705,10 +758,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>171</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -716,10 +769,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>891</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -727,10 +780,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1113</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -738,10 +791,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1304</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -749,10 +802,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1581</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -760,10 +813,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1950</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -771,10 +824,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1962</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -782,10 +835,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1984</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -793,10 +846,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2125</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -804,10 +857,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2300</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -815,10 +868,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2413</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -826,10 +879,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2572</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -837,10 +890,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2574</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -848,10 +901,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2713</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -859,10 +912,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2777</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -870,10 +923,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>3005</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -881,10 +934,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>3184</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -892,10 +945,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>3311</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -903,10 +956,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>3312</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -914,10 +967,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>3330</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -925,10 +978,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>3421</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -936,10 +989,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>3443</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -947,10 +1000,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>3474</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -958,10 +1011,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>3493</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -969,10 +1022,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>3893</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -980,10 +1033,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>3898</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -991,10 +1044,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>4040</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1002,10 +1055,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>4126</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1013,10 +1066,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>4137</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1024,10 +1077,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>4159</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1035,10 +1088,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>4307</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1046,10 +1099,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>4350</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1057,27 +1110,103 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>4572</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C41" s="3"/>
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>821</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>1030</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>1608</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>2378</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>2379</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>4743</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
+        <v>5161</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
